--- a/03070_目標_アクションプラン管理ワイヤーv1.1.xlsx
+++ b/03070_目標_アクションプラン管理ワイヤーv1.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="7890" yWindow="-45" windowWidth="9570" windowHeight="11580" tabRatio="822" activeTab="1"/>
@@ -14,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">アクション結果一覧_表組み!$A$1:$BF$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$BD$42</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -108,14 +108,14 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>2017/2/24</t>
+    <t>2017/4/4</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -510,24 +510,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -587,6 +569,24 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3916,7 +3916,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3951,7 +3951,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4196,7 +4196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BD42"/>
   <sheetViews>
@@ -4396,125 +4396,125 @@
     </row>
     <row r="2" spans="1:56" ht="14.25" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="57" t="str">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="51" t="str">
         <f>IF(L9="","",CONCATENATE(L9))</f>
         <v>MAPX画面デザイン</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="51" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="63"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="57"/>
       <c r="AO2" s="10"/>
       <c r="AP2" s="11"/>
       <c r="AQ2" s="11"/>
       <c r="AR2" s="11"/>
       <c r="AS2" s="12"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="48"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="42"/>
       <c r="BD2" s="2"/>
     </row>
     <row r="3" spans="1:56" ht="14.25" thickBot="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="64"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="58"/>
       <c r="AO3" s="13"/>
       <c r="AP3" s="14"/>
       <c r="AQ3" s="14"/>
       <c r="AR3" s="14"/>
       <c r="AS3" s="15"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="50"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="44"/>
       <c r="BD3" s="2"/>
     </row>
     <row r="4" spans="1:56" ht="14.25" customHeight="1">
@@ -4810,122 +4810,122 @@
     <row r="9" spans="1:56">
       <c r="A9" s="2"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="43" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L9" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="45"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="65"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="65"/>
+      <c r="AY9" s="65"/>
+      <c r="AZ9" s="65"/>
+      <c r="BA9" s="65"/>
+      <c r="BB9" s="65"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="2"/>
     </row>
     <row r="10" spans="1:56">
       <c r="A10" s="2"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="46"/>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="46"/>
-      <c r="AN10" s="46"/>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="46"/>
-      <c r="AS10" s="46"/>
-      <c r="AT10" s="46"/>
-      <c r="AU10" s="46"/>
-      <c r="AV10" s="46"/>
-      <c r="AW10" s="46"/>
-      <c r="AX10" s="46"/>
-      <c r="AY10" s="46"/>
-      <c r="AZ10" s="46"/>
-      <c r="BA10" s="46"/>
-      <c r="BB10" s="46"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="66"/>
+      <c r="AW10" s="66"/>
+      <c r="AX10" s="66"/>
+      <c r="AY10" s="66"/>
+      <c r="AZ10" s="66"/>
+      <c r="BA10" s="66"/>
+      <c r="BB10" s="66"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="2"/>
     </row>
@@ -4990,116 +4990,116 @@
     <row r="12" spans="1:56">
       <c r="A12" s="2"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="45"/>
-      <c r="AS12" s="45"/>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="45"/>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
-      <c r="BB12" s="45"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="65"/>
+      <c r="BA12" s="65"/>
+      <c r="BB12" s="65"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="2"/>
     </row>
     <row r="13" spans="1:56">
       <c r="A13" s="2"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="45"/>
-      <c r="AS13" s="45"/>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="45"/>
-      <c r="AY13" s="45"/>
-      <c r="AZ13" s="45"/>
-      <c r="BA13" s="45"/>
-      <c r="BB13" s="45"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="65"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="65"/>
+      <c r="AY13" s="65"/>
+      <c r="AZ13" s="65"/>
+      <c r="BA13" s="65"/>
+      <c r="BB13" s="65"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="2"/>
     </row>
@@ -5164,122 +5164,122 @@
     <row r="15" spans="1:56">
       <c r="A15" s="2"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="43" t="s">
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
-      <c r="AL15" s="45"/>
-      <c r="AM15" s="45"/>
-      <c r="AN15" s="45"/>
-      <c r="AO15" s="45"/>
-      <c r="AP15" s="45"/>
-      <c r="AQ15" s="45"/>
-      <c r="AR15" s="45"/>
-      <c r="AS15" s="45"/>
-      <c r="AT15" s="45"/>
-      <c r="AU15" s="45"/>
-      <c r="AV15" s="45"/>
-      <c r="AW15" s="45"/>
-      <c r="AX15" s="45"/>
-      <c r="AY15" s="45"/>
-      <c r="AZ15" s="45"/>
-      <c r="BA15" s="45"/>
-      <c r="BB15" s="45"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="65"/>
+      <c r="AZ15" s="65"/>
+      <c r="BA15" s="65"/>
+      <c r="BB15" s="65"/>
       <c r="BC15" s="7"/>
       <c r="BD15" s="2"/>
     </row>
     <row r="16" spans="1:56">
       <c r="A16" s="2"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="46"/>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="46"/>
-      <c r="AN16" s="46"/>
-      <c r="AO16" s="46"/>
-      <c r="AP16" s="46"/>
-      <c r="AQ16" s="46"/>
-      <c r="AR16" s="46"/>
-      <c r="AS16" s="46"/>
-      <c r="AT16" s="46"/>
-      <c r="AU16" s="46"/>
-      <c r="AV16" s="46"/>
-      <c r="AW16" s="46"/>
-      <c r="AX16" s="46"/>
-      <c r="AY16" s="46"/>
-      <c r="AZ16" s="46"/>
-      <c r="BA16" s="46"/>
-      <c r="BB16" s="46"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="66"/>
+      <c r="AO16" s="66"/>
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="66"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="66"/>
+      <c r="AV16" s="66"/>
+      <c r="AW16" s="66"/>
+      <c r="AX16" s="66"/>
+      <c r="AY16" s="66"/>
+      <c r="AZ16" s="66"/>
+      <c r="BA16" s="66"/>
+      <c r="BB16" s="66"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="2"/>
     </row>
@@ -5344,116 +5344,116 @@
     <row r="18" spans="1:56">
       <c r="A18" s="2"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="45"/>
-      <c r="AP18" s="45"/>
-      <c r="AQ18" s="45"/>
-      <c r="AR18" s="45"/>
-      <c r="AS18" s="45"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="45"/>
-      <c r="AX18" s="45"/>
-      <c r="AY18" s="45"/>
-      <c r="AZ18" s="45"/>
-      <c r="BA18" s="45"/>
-      <c r="BB18" s="45"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="2"/>
     </row>
     <row r="19" spans="1:56">
       <c r="A19" s="2"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="45"/>
-      <c r="AQ19" s="45"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="AZ19" s="45"/>
-      <c r="BA19" s="45"/>
-      <c r="BB19" s="45"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="2"/>
     </row>
@@ -6736,24 +6736,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:BB16"/>
+    <mergeCell ref="C18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:BB19"/>
+    <mergeCell ref="C9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:BB10"/>
+    <mergeCell ref="C12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:BB13"/>
     <mergeCell ref="AZ2:BC3"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:X3"/>
     <mergeCell ref="Y2:AC3"/>
     <mergeCell ref="AD2:AN3"/>
     <mergeCell ref="AT2:AY3"/>
-    <mergeCell ref="C9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:BB10"/>
-    <mergeCell ref="C12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:BB13"/>
-    <mergeCell ref="C15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:BB16"/>
-    <mergeCell ref="C18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:BB19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.19685039370078738" right="0.19685039370078738" top="0.59055118110236215" bottom="0.19685039370078738" header="0.59055118110236215" footer="0"/>
@@ -6763,13 +6763,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:BF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AX6" sqref="AX6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -6839,13 +6841,13 @@
     </row>
     <row r="2" spans="1:58" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="95" t="str">
         <f>表紙!$L$9</f>
         <v>MAPX画面デザイン</v>
@@ -6885,8 +6887,8 @@
       <c r="AN2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="47"/>
       <c r="AQ2" s="87"/>
       <c r="AR2" s="88"/>
       <c r="AS2" s="88"/>
@@ -6894,13 +6896,13 @@
       <c r="AU2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="65" t="s">
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
       <c r="BA2" s="93"/>
       <c r="BB2" s="67" t="s">
         <v>5</v>
@@ -6912,11 +6914,11 @@
     </row>
     <row r="3" spans="1:58" ht="14.25" thickBot="1">
       <c r="A3" s="24"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="98"/>
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
@@ -6951,18 +6953,18 @@
       <c r="AL3" s="99"/>
       <c r="AM3" s="100"/>
       <c r="AN3" s="86"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="56"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="50"/>
       <c r="AQ3" s="90"/>
       <c r="AR3" s="91"/>
       <c r="AS3" s="91"/>
       <c r="AT3" s="92"/>
       <c r="AU3" s="86"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="43"/>
       <c r="BA3" s="94"/>
       <c r="BB3" s="70"/>
       <c r="BC3" s="71"/>
@@ -6972,13 +6974,13 @@
     </row>
     <row r="4" spans="1:58" ht="14.25" customHeight="1">
       <c r="A4" s="24"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="79" t="str">
         <f ca="1">RIGHT(CELL("filename",A2),LEN(CELL("filename",A2))-FIND("]",CELL("filename",A2)))</f>
         <v>アクション結果一覧_表組み</v>
@@ -7018,8 +7020,8 @@
       <c r="AN4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="53"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="47"/>
       <c r="AQ4" s="87">
         <v>1</v>
       </c>
@@ -7029,13 +7031,13 @@
       <c r="AU4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="65" t="s">
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
       <c r="BA4" s="93"/>
       <c r="BB4" s="73"/>
       <c r="BC4" s="74"/>
@@ -7045,11 +7047,11 @@
     </row>
     <row r="5" spans="1:58" ht="14.25" thickBot="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="82"/>
       <c r="H5" s="83"/>
       <c r="I5" s="83"/>
@@ -7084,18 +7086,18 @@
       <c r="AL5" s="83"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="86"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="56"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="50"/>
       <c r="AQ5" s="90"/>
       <c r="AR5" s="91"/>
       <c r="AS5" s="91"/>
       <c r="AT5" s="92"/>
       <c r="AU5" s="86"/>
-      <c r="AV5" s="55"/>
-      <c r="AW5" s="56"/>
-      <c r="AX5" s="66"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="60"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="43"/>
       <c r="BA5" s="94"/>
       <c r="BB5" s="76"/>
       <c r="BC5" s="77"/>

--- a/03070_目標_アクションプラン管理ワイヤーv1.1.xlsx
+++ b/03070_目標_アクションプラン管理ワイヤーv1.1.xlsx
@@ -108,7 +108,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>2017/4/4</t>
+    <t>2017/4/5</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -510,6 +510,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,24 +587,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4396,125 +4396,125 @@
     </row>
     <row r="2" spans="1:56" ht="14.25" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="51" t="str">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="57" t="str">
         <f>IF(L9="","",CONCATENATE(L9))</f>
         <v>MAPX画面デザイン</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="45" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="57"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="63"/>
       <c r="AO2" s="10"/>
       <c r="AP2" s="11"/>
       <c r="AQ2" s="11"/>
       <c r="AR2" s="11"/>
       <c r="AS2" s="12"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="42"/>
+      <c r="AT2" s="65"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="47"/>
+      <c r="BC2" s="48"/>
       <c r="BD2" s="2"/>
     </row>
     <row r="3" spans="1:56" ht="14.25" thickBot="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="58"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="64"/>
       <c r="AO3" s="13"/>
       <c r="AP3" s="14"/>
       <c r="AQ3" s="14"/>
       <c r="AR3" s="14"/>
       <c r="AS3" s="15"/>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="44"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="50"/>
       <c r="BD3" s="2"/>
     </row>
     <row r="4" spans="1:56" ht="14.25" customHeight="1">
@@ -4810,122 +4810,122 @@
     <row r="9" spans="1:56">
       <c r="A9" s="2"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="63" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="65"/>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="65"/>
-      <c r="AZ9" s="65"/>
-      <c r="BA9" s="65"/>
-      <c r="BB9" s="65"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="45"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="2"/>
     </row>
     <row r="10" spans="1:56">
       <c r="A10" s="2"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="66"/>
-      <c r="AY10" s="66"/>
-      <c r="AZ10" s="66"/>
-      <c r="BA10" s="66"/>
-      <c r="BB10" s="66"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="46"/>
+      <c r="AT10" s="46"/>
+      <c r="AU10" s="46"/>
+      <c r="AV10" s="46"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="46"/>
+      <c r="AY10" s="46"/>
+      <c r="AZ10" s="46"/>
+      <c r="BA10" s="46"/>
+      <c r="BB10" s="46"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="2"/>
     </row>
@@ -4990,116 +4990,116 @@
     <row r="12" spans="1:56">
       <c r="A12" s="2"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="65"/>
-      <c r="AY12" s="65"/>
-      <c r="AZ12" s="65"/>
-      <c r="BA12" s="65"/>
-      <c r="BB12" s="65"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="45"/>
+      <c r="AT12" s="45"/>
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
+      <c r="BB12" s="45"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="2"/>
     </row>
     <row r="13" spans="1:56">
       <c r="A13" s="2"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="65"/>
-      <c r="AZ13" s="65"/>
-      <c r="BA13" s="65"/>
-      <c r="BB13" s="65"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="45"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="2"/>
     </row>
@@ -5164,122 +5164,122 @@
     <row r="15" spans="1:56">
       <c r="A15" s="2"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="63" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="61" t="s">
+      <c r="L15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="45"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="45"/>
+      <c r="AR15" s="45"/>
+      <c r="AS15" s="45"/>
+      <c r="AT15" s="45"/>
+      <c r="AU15" s="45"/>
+      <c r="AV15" s="45"/>
+      <c r="AW15" s="45"/>
+      <c r="AX15" s="45"/>
+      <c r="AY15" s="45"/>
+      <c r="AZ15" s="45"/>
+      <c r="BA15" s="45"/>
+      <c r="BB15" s="45"/>
       <c r="BC15" s="7"/>
       <c r="BD15" s="2"/>
     </row>
     <row r="16" spans="1:56">
       <c r="A16" s="2"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="66"/>
-      <c r="AO16" s="66"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="66"/>
-      <c r="BA16" s="66"/>
-      <c r="BB16" s="66"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="46"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
+      <c r="AT16" s="46"/>
+      <c r="AU16" s="46"/>
+      <c r="AV16" s="46"/>
+      <c r="AW16" s="46"/>
+      <c r="AX16" s="46"/>
+      <c r="AY16" s="46"/>
+      <c r="AZ16" s="46"/>
+      <c r="BA16" s="46"/>
+      <c r="BB16" s="46"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="2"/>
     </row>
@@ -5344,116 +5344,116 @@
     <row r="18" spans="1:56">
       <c r="A18" s="2"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="AZ18" s="45"/>
+      <c r="BA18" s="45"/>
+      <c r="BB18" s="45"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="2"/>
     </row>
     <row r="19" spans="1:56">
       <c r="A19" s="2"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="45"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="45"/>
+      <c r="BA19" s="45"/>
+      <c r="BB19" s="45"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="2"/>
     </row>
@@ -6736,24 +6736,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AZ2:BC3"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:X3"/>
+    <mergeCell ref="Y2:AC3"/>
+    <mergeCell ref="AD2:AN3"/>
+    <mergeCell ref="AT2:AY3"/>
+    <mergeCell ref="C9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:BB10"/>
+    <mergeCell ref="C12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:BB13"/>
     <mergeCell ref="C15:J16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:BB16"/>
     <mergeCell ref="C18:J19"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="L18:BB19"/>
-    <mergeCell ref="C9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:BB10"/>
-    <mergeCell ref="C12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:BB13"/>
-    <mergeCell ref="AZ2:BC3"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:X3"/>
-    <mergeCell ref="Y2:AC3"/>
-    <mergeCell ref="AD2:AN3"/>
-    <mergeCell ref="AT2:AY3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.19685039370078738" right="0.19685039370078738" top="0.59055118110236215" bottom="0.19685039370078738" header="0.59055118110236215" footer="0"/>
@@ -6841,13 +6841,13 @@
     </row>
     <row r="2" spans="1:58" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="95" t="str">
         <f>表紙!$L$9</f>
         <v>MAPX画面デザイン</v>
@@ -6887,8 +6887,8 @@
       <c r="AN2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="47"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
       <c r="AQ2" s="87"/>
       <c r="AR2" s="88"/>
       <c r="AS2" s="88"/>
@@ -6896,13 +6896,13 @@
       <c r="AU2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="59" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
       <c r="BA2" s="93"/>
       <c r="BB2" s="67" t="s">
         <v>5</v>
@@ -6914,11 +6914,11 @@
     </row>
     <row r="3" spans="1:58" ht="14.25" thickBot="1">
       <c r="A3" s="24"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="98"/>
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
@@ -6953,18 +6953,18 @@
       <c r="AL3" s="99"/>
       <c r="AM3" s="100"/>
       <c r="AN3" s="86"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="50"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="56"/>
       <c r="AQ3" s="90"/>
       <c r="AR3" s="91"/>
       <c r="AS3" s="91"/>
       <c r="AT3" s="92"/>
       <c r="AU3" s="86"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
       <c r="BA3" s="94"/>
       <c r="BB3" s="70"/>
       <c r="BC3" s="71"/>
@@ -6974,13 +6974,13 @@
     </row>
     <row r="4" spans="1:58" ht="14.25" customHeight="1">
       <c r="A4" s="24"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="79" t="str">
         <f ca="1">RIGHT(CELL("filename",A2),LEN(CELL("filename",A2))-FIND("]",CELL("filename",A2)))</f>
         <v>アクション結果一覧_表組み</v>
@@ -7020,8 +7020,8 @@
       <c r="AN4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="47"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="53"/>
       <c r="AQ4" s="87">
         <v>1</v>
       </c>
@@ -7031,13 +7031,13 @@
       <c r="AU4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="59" t="s">
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
       <c r="BA4" s="93"/>
       <c r="BB4" s="73"/>
       <c r="BC4" s="74"/>
@@ -7047,11 +7047,11 @@
     </row>
     <row r="5" spans="1:58" ht="14.25" thickBot="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="82"/>
       <c r="H5" s="83"/>
       <c r="I5" s="83"/>
@@ -7086,18 +7086,18 @@
       <c r="AL5" s="83"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="86"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="50"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="56"/>
       <c r="AQ5" s="90"/>
       <c r="AR5" s="91"/>
       <c r="AS5" s="91"/>
       <c r="AT5" s="92"/>
       <c r="AU5" s="86"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="60"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="43"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
       <c r="BA5" s="94"/>
       <c r="BB5" s="76"/>
       <c r="BC5" s="77"/>

--- a/03070_目標_アクションプラン管理ワイヤーv1.1.xlsx
+++ b/03070_目標_アクションプラン管理ワイヤーv1.1.xlsx
@@ -108,7 +108,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>2017/4/4</t>
+    <t>2016/4/4</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -510,6 +510,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,24 +587,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4396,125 +4396,125 @@
     </row>
     <row r="2" spans="1:56" ht="14.25" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="51" t="str">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="57" t="str">
         <f>IF(L9="","",CONCATENATE(L9))</f>
         <v>MAPX画面デザイン</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="45" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="57"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="63"/>
       <c r="AO2" s="10"/>
       <c r="AP2" s="11"/>
       <c r="AQ2" s="11"/>
       <c r="AR2" s="11"/>
       <c r="AS2" s="12"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="42"/>
+      <c r="AT2" s="65"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="47"/>
+      <c r="BC2" s="48"/>
       <c r="BD2" s="2"/>
     </row>
     <row r="3" spans="1:56" ht="14.25" thickBot="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="58"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="64"/>
       <c r="AO3" s="13"/>
       <c r="AP3" s="14"/>
       <c r="AQ3" s="14"/>
       <c r="AR3" s="14"/>
       <c r="AS3" s="15"/>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="44"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="50"/>
       <c r="BD3" s="2"/>
     </row>
     <row r="4" spans="1:56" ht="14.25" customHeight="1">
@@ -4810,122 +4810,122 @@
     <row r="9" spans="1:56">
       <c r="A9" s="2"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="63" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="65"/>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="65"/>
-      <c r="AZ9" s="65"/>
-      <c r="BA9" s="65"/>
-      <c r="BB9" s="65"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="45"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="2"/>
     </row>
     <row r="10" spans="1:56">
       <c r="A10" s="2"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="66"/>
-      <c r="AY10" s="66"/>
-      <c r="AZ10" s="66"/>
-      <c r="BA10" s="66"/>
-      <c r="BB10" s="66"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="46"/>
+      <c r="AT10" s="46"/>
+      <c r="AU10" s="46"/>
+      <c r="AV10" s="46"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="46"/>
+      <c r="AY10" s="46"/>
+      <c r="AZ10" s="46"/>
+      <c r="BA10" s="46"/>
+      <c r="BB10" s="46"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="2"/>
     </row>
@@ -4990,116 +4990,116 @@
     <row r="12" spans="1:56">
       <c r="A12" s="2"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="65"/>
-      <c r="AY12" s="65"/>
-      <c r="AZ12" s="65"/>
-      <c r="BA12" s="65"/>
-      <c r="BB12" s="65"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="45"/>
+      <c r="AT12" s="45"/>
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
+      <c r="BB12" s="45"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="2"/>
     </row>
     <row r="13" spans="1:56">
       <c r="A13" s="2"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="65"/>
-      <c r="AZ13" s="65"/>
-      <c r="BA13" s="65"/>
-      <c r="BB13" s="65"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="45"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="2"/>
     </row>
@@ -5164,122 +5164,122 @@
     <row r="15" spans="1:56">
       <c r="A15" s="2"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="63" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="61" t="s">
+      <c r="L15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="45"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="45"/>
+      <c r="AR15" s="45"/>
+      <c r="AS15" s="45"/>
+      <c r="AT15" s="45"/>
+      <c r="AU15" s="45"/>
+      <c r="AV15" s="45"/>
+      <c r="AW15" s="45"/>
+      <c r="AX15" s="45"/>
+      <c r="AY15" s="45"/>
+      <c r="AZ15" s="45"/>
+      <c r="BA15" s="45"/>
+      <c r="BB15" s="45"/>
       <c r="BC15" s="7"/>
       <c r="BD15" s="2"/>
     </row>
     <row r="16" spans="1:56">
       <c r="A16" s="2"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="66"/>
-      <c r="AO16" s="66"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="66"/>
-      <c r="BA16" s="66"/>
-      <c r="BB16" s="66"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="46"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
+      <c r="AT16" s="46"/>
+      <c r="AU16" s="46"/>
+      <c r="AV16" s="46"/>
+      <c r="AW16" s="46"/>
+      <c r="AX16" s="46"/>
+      <c r="AY16" s="46"/>
+      <c r="AZ16" s="46"/>
+      <c r="BA16" s="46"/>
+      <c r="BB16" s="46"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="2"/>
     </row>
@@ -5344,116 +5344,116 @@
     <row r="18" spans="1:56">
       <c r="A18" s="2"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="AZ18" s="45"/>
+      <c r="BA18" s="45"/>
+      <c r="BB18" s="45"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="2"/>
     </row>
     <row r="19" spans="1:56">
       <c r="A19" s="2"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="45"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="45"/>
+      <c r="BA19" s="45"/>
+      <c r="BB19" s="45"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="2"/>
     </row>
@@ -6736,24 +6736,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AZ2:BC3"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:X3"/>
+    <mergeCell ref="Y2:AC3"/>
+    <mergeCell ref="AD2:AN3"/>
+    <mergeCell ref="AT2:AY3"/>
+    <mergeCell ref="C9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:BB10"/>
+    <mergeCell ref="C12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:BB13"/>
     <mergeCell ref="C15:J16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:BB16"/>
     <mergeCell ref="C18:J19"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="L18:BB19"/>
-    <mergeCell ref="C9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:BB10"/>
-    <mergeCell ref="C12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:BB13"/>
-    <mergeCell ref="AZ2:BC3"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:X3"/>
-    <mergeCell ref="Y2:AC3"/>
-    <mergeCell ref="AD2:AN3"/>
-    <mergeCell ref="AT2:AY3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.19685039370078738" right="0.19685039370078738" top="0.59055118110236215" bottom="0.19685039370078738" header="0.59055118110236215" footer="0"/>
@@ -6841,13 +6841,13 @@
     </row>
     <row r="2" spans="1:58" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="95" t="str">
         <f>表紙!$L$9</f>
         <v>MAPX画面デザイン</v>
@@ -6887,8 +6887,8 @@
       <c r="AN2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="47"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
       <c r="AQ2" s="87"/>
       <c r="AR2" s="88"/>
       <c r="AS2" s="88"/>
@@ -6896,13 +6896,13 @@
       <c r="AU2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="59" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
       <c r="BA2" s="93"/>
       <c r="BB2" s="67" t="s">
         <v>5</v>
@@ -6914,11 +6914,11 @@
     </row>
     <row r="3" spans="1:58" ht="14.25" thickBot="1">
       <c r="A3" s="24"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="98"/>
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
@@ -6953,18 +6953,18 @@
       <c r="AL3" s="99"/>
       <c r="AM3" s="100"/>
       <c r="AN3" s="86"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="50"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="56"/>
       <c r="AQ3" s="90"/>
       <c r="AR3" s="91"/>
       <c r="AS3" s="91"/>
       <c r="AT3" s="92"/>
       <c r="AU3" s="86"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
       <c r="BA3" s="94"/>
       <c r="BB3" s="70"/>
       <c r="BC3" s="71"/>
@@ -6974,13 +6974,13 @@
     </row>
     <row r="4" spans="1:58" ht="14.25" customHeight="1">
       <c r="A4" s="24"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="79" t="str">
         <f ca="1">RIGHT(CELL("filename",A2),LEN(CELL("filename",A2))-FIND("]",CELL("filename",A2)))</f>
         <v>アクション結果一覧_表組み</v>
@@ -7020,8 +7020,8 @@
       <c r="AN4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="47"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="53"/>
       <c r="AQ4" s="87">
         <v>1</v>
       </c>
@@ -7031,13 +7031,13 @@
       <c r="AU4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="59" t="s">
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
       <c r="BA4" s="93"/>
       <c r="BB4" s="73"/>
       <c r="BC4" s="74"/>
@@ -7047,11 +7047,11 @@
     </row>
     <row r="5" spans="1:58" ht="14.25" thickBot="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="82"/>
       <c r="H5" s="83"/>
       <c r="I5" s="83"/>
@@ -7086,18 +7086,18 @@
       <c r="AL5" s="83"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="86"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="50"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="56"/>
       <c r="AQ5" s="90"/>
       <c r="AR5" s="91"/>
       <c r="AS5" s="91"/>
       <c r="AT5" s="92"/>
       <c r="AU5" s="86"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="60"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="43"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
       <c r="BA5" s="94"/>
       <c r="BB5" s="76"/>
       <c r="BC5" s="77"/>
